--- a/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFA8357-77D4-4675-BE8F-8B58001D2846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F8C1944-C552-4768-AC3B-DBF39E5AC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE149574-2D0D-4875-8E3B-DCAA0409A6C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C5F063B-43C7-4C92-8411-684122927A76}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>10,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,30 +107,30 @@
     <t>95,59%</t>
   </si>
   <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -140,1453 +140,1447 @@
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>14,8%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>68,48%</t>
   </si>
   <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>96,95%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>43,69%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>92,04%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497B47B-4D41-49D1-BB2C-03907949F444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4324AF6-227A-4975-A001-BF6597F0E5C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2933,7 +2927,7 @@
         <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2942,13 @@
         <v>436705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>282</v>
@@ -2963,13 +2957,13 @@
         <v>296177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>738</v>
@@ -2978,13 +2972,13 @@
         <v>732881</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3046,13 @@
         <v>276639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1771</v>
@@ -3067,13 +3061,13 @@
         <v>1829067</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2032</v>
@@ -3082,13 +3076,13 @@
         <v>2105705</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3097,13 @@
         <v>2999905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1526</v>
@@ -3118,28 +3112,28 @@
         <v>1550131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4479</v>
       </c>
       <c r="N23" s="7">
-        <v>4550035</v>
+        <v>4550036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,7 +3175,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3195,7 +3189,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E02921-03B0-429F-9A03-4E112835565D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868F4DF0-2AA0-48E2-A325-D7B3DF1937D4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3335,13 @@
         <v>10138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -3356,13 +3350,13 @@
         <v>64614</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -3371,13 +3365,13 @@
         <v>74752</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3386,13 @@
         <v>444008</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>360</v>
@@ -3407,13 +3401,13 @@
         <v>365616</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>796</v>
@@ -3422,10 +3416,10 @@
         <v>809624</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>161</v>
@@ -3654,10 +3648,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>448</v>
@@ -3666,13 +3660,13 @@
         <v>476168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -3681,13 +3675,13 @@
         <v>534291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3696,13 @@
         <v>623740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -3717,13 +3711,13 @@
         <v>234682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -3732,13 +3726,13 @@
         <v>858421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3800,13 @@
         <v>69681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>384</v>
@@ -3821,13 +3815,13 @@
         <v>435614</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>446</v>
@@ -3836,13 +3830,13 @@
         <v>505296</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3851,7 @@
         <v>544936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>206</v>
@@ -4414,7 +4408,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF978A8E-53F5-49A3-AB28-D09786AB5C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539F7F42-42FE-4538-BDAB-2D5D34342573}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4900,13 +4894,13 @@
         <v>467975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4915,13 @@
         <v>563919</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -4936,13 +4930,13 @@
         <v>298589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>839</v>
@@ -4951,13 +4945,13 @@
         <v>862508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5019,13 @@
         <v>108460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
@@ -5040,28 +5034,28 @@
         <v>425662</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>492</v>
       </c>
       <c r="N13" s="7">
-        <v>534121</v>
+        <v>534122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5070,13 @@
         <v>537588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -5091,13 +5085,13 @@
         <v>223415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>692</v>
@@ -5106,13 +5100,13 @@
         <v>761004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5148,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5198,10 +5192,10 @@
         <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -5210,13 +5204,13 @@
         <v>429573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5225,13 @@
         <v>407885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -5246,13 +5240,13 @@
         <v>137309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>480</v>
@@ -5261,13 +5255,13 @@
         <v>545194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5329,13 @@
         <v>94909</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>403</v>
@@ -5350,13 +5344,13 @@
         <v>464535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>501</v>
@@ -5365,13 +5359,13 @@
         <v>559444</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5380,13 @@
         <v>496419</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -5401,13 +5395,13 @@
         <v>313396</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>781</v>
@@ -5416,13 +5410,13 @@
         <v>809815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5484,13 @@
         <v>487343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1833</v>
@@ -5505,13 +5499,13 @@
         <v>1960072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>2288</v>
@@ -5520,13 +5514,13 @@
         <v>2447415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5535,13 @@
         <v>2907007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>1505</v>
@@ -5556,13 +5550,13 @@
         <v>1584470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>4281</v>
@@ -5571,13 +5565,13 @@
         <v>4491477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,7 +5627,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0F2E99-BFD3-4073-8005-329552FEEE1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8661AE-8BA3-4410-A750-504FC092FE65}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5773,13 @@
         <v>179538</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>150</v>
@@ -5794,13 +5788,13 @@
         <v>239740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>238</v>
@@ -5809,13 +5803,13 @@
         <v>419279</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5824,13 @@
         <v>198141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -5845,13 +5839,13 @@
         <v>115217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -6271,7 +6265,7 @@
         <v>1596</v>
       </c>
       <c r="N13" s="7">
-        <v>1213850</v>
+        <v>1213849</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>450</v>
@@ -6373,7 +6367,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6551,7 +6545,7 @@
         <v>583</v>
       </c>
       <c r="D19" s="7">
-        <v>392923</v>
+        <v>392924</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>480</v>
@@ -6653,7 +6647,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6727,25 +6721,25 @@
         <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>7164</v>
       </c>
       <c r="N22" s="7">
-        <v>5667101</v>
+        <v>5667100</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6754,13 @@
         <v>1203091</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H23" s="7">
         <v>430</v>
@@ -6775,13 +6769,13 @@
         <v>350617</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>511</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>1579</v>
@@ -6790,13 +6784,13 @@
         <v>1553708</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6832,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6852,7 +6846,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F8C1944-C552-4768-AC3B-DBF39E5AC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0516EEAB-98FB-4704-AD08-84D9A0F86EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C5F063B-43C7-4C92-8411-684122927A76}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63600B78-6D47-492D-A21B-2FFBBB35A40C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,59%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>45,45%</t>
   </si>
   <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>54,55%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,7 +197,7 @@
     <t>8,51%</t>
   </si>
   <si>
-    <t>6,41%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>11,16%</t>
@@ -206,1372 +206,1360 @@
     <t>64,54%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>35,04%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>10,31%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
   </si>
   <si>
     <t>21,52%</t>
@@ -1992,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4324AF6-227A-4975-A001-BF6597F0E5C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE800598-7CD6-4FB6-98B8-7A894B5A0770}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,7 +3082,7 @@
         <v>2953</v>
       </c>
       <c r="D23" s="7">
-        <v>2999905</v>
+        <v>2999904</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3145,7 +3133,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3211,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868F4DF0-2AA0-48E2-A325-D7B3DF1937D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B250D22-732D-4F2D-B150-86BAB44FB177}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,7 +3359,7 @@
         <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3407,7 @@
         <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>161</v>
@@ -3505,13 +3493,13 @@
         <v>291271</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>346</v>
@@ -3520,13 +3508,13 @@
         <v>368199</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3529,13 @@
         <v>610159</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>299</v>
@@ -3556,13 +3544,13 @@
         <v>318984</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -3571,13 +3559,13 @@
         <v>929143</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3633,13 @@
         <v>58123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>448</v>
@@ -3660,13 +3648,13 @@
         <v>476168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -3675,13 +3663,13 @@
         <v>534291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3684,13 @@
         <v>623740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -3711,13 +3699,13 @@
         <v>234682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -3726,13 +3714,13 @@
         <v>858421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3788,13 @@
         <v>69681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>384</v>
@@ -3815,13 +3803,13 @@
         <v>435614</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>446</v>
@@ -3830,13 +3818,13 @@
         <v>505296</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3839,13 @@
         <v>544936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -3866,13 +3854,13 @@
         <v>180585</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -3881,13 +3869,13 @@
         <v>725520</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3943,13 @@
         <v>34966</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>285</v>
@@ -3970,13 +3958,13 @@
         <v>313149</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>316</v>
@@ -3985,13 +3973,13 @@
         <v>348115</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3994,13 @@
         <v>394463</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -4021,13 +4009,13 @@
         <v>134651</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>483</v>
@@ -4036,13 +4024,13 @@
         <v>529114</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4098,13 @@
         <v>71280</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>357</v>
@@ -4125,13 +4113,13 @@
         <v>378062</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>419</v>
@@ -4140,13 +4128,13 @@
         <v>449342</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4149,13 @@
         <v>488357</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -4176,13 +4164,13 @@
         <v>364913</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>779</v>
@@ -4191,13 +4179,13 @@
         <v>853270</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4253,13 @@
         <v>321117</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1807</v>
@@ -4280,13 +4268,13 @@
         <v>1958879</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>2103</v>
@@ -4295,13 +4283,13 @@
         <v>2279995</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4304,13 @@
         <v>3105662</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>1491</v>
@@ -4331,13 +4319,13 @@
         <v>1599430</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>4404</v>
@@ -4346,13 +4334,13 @@
         <v>4705093</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539F7F42-42FE-4538-BDAB-2D5D34342573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3FCE6A-264A-4E0A-9806-5C7029B9286B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4542,13 @@
         <v>32151</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -4569,13 +4557,13 @@
         <v>80979</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -4584,13 +4572,13 @@
         <v>113130</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4593,13 @@
         <v>387312</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>322</v>
@@ -4620,13 +4608,13 @@
         <v>314776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>688</v>
@@ -4635,13 +4623,13 @@
         <v>702088</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4697,13 @@
         <v>76612</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>272</v>
@@ -4724,13 +4712,13 @@
         <v>266560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>345</v>
@@ -4739,13 +4727,13 @@
         <v>343172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4748,13 @@
         <v>513884</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>307</v>
@@ -4775,13 +4763,13 @@
         <v>296984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>801</v>
@@ -4790,13 +4778,13 @@
         <v>810868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4852,13 @@
         <v>105178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>366</v>
@@ -4879,13 +4867,13 @@
         <v>362797</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -4894,13 +4882,13 @@
         <v>467975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4903,13 @@
         <v>563919</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -4930,13 +4918,13 @@
         <v>298589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>839</v>
@@ -4945,13 +4933,13 @@
         <v>862508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5007,13 @@
         <v>108460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
@@ -5034,28 +5022,28 @@
         <v>425662</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>492</v>
       </c>
       <c r="N13" s="7">
-        <v>534122</v>
+        <v>534121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5058,13 @@
         <v>537588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -5085,13 +5073,13 @@
         <v>223415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>692</v>
@@ -5100,13 +5088,13 @@
         <v>761004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5136,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5174,13 +5162,13 @@
         <v>70033</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>314</v>
@@ -5189,13 +5177,13 @@
         <v>359540</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -5204,13 +5192,13 @@
         <v>429573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5213,13 @@
         <v>407885</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -5240,13 +5228,13 @@
         <v>137309</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>480</v>
@@ -5255,13 +5243,13 @@
         <v>545194</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5317,13 @@
         <v>94909</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>403</v>
@@ -5344,13 +5332,13 @@
         <v>464535</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>501</v>
@@ -5359,13 +5347,13 @@
         <v>559444</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5368,13 @@
         <v>496419</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -5395,13 +5383,13 @@
         <v>313396</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>781</v>
@@ -5505,7 +5493,7 @@
         <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>2288</v>
@@ -5514,13 +5502,13 @@
         <v>2447415</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5523,13 @@
         <v>2907007</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>1505</v>
@@ -5550,13 +5538,13 @@
         <v>1584470</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>4281</v>
@@ -5565,13 +5553,13 @@
         <v>4491477</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8661AE-8BA3-4410-A750-504FC092FE65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95287C5D-0ADA-44EA-A25D-E82CD8BF9487}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5773,13 +5761,13 @@
         <v>179538</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>150</v>
@@ -5788,13 +5776,13 @@
         <v>239740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>238</v>
@@ -5803,13 +5791,13 @@
         <v>419279</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5812,13 @@
         <v>198141</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -5839,13 +5827,13 @@
         <v>115217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5854,13 +5842,13 @@
         <v>313357</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5916,13 @@
         <v>283376</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>434</v>
@@ -5943,13 +5931,13 @@
         <v>463934</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>636</v>
@@ -5958,13 +5946,13 @@
         <v>747310</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5967,13 @@
         <v>145020</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5994,13 +5982,13 @@
         <v>35281</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
@@ -6009,13 +5997,13 @@
         <v>180301</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6071,13 @@
         <v>428118</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>823</v>
@@ -6098,13 +6086,13 @@
         <v>593640</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>1236</v>
@@ -6113,13 +6101,13 @@
         <v>1021757</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6122,13 @@
         <v>129134</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6149,13 +6137,13 @@
         <v>16807</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -6164,13 +6152,13 @@
         <v>145942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6226,13 @@
         <v>487220</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>1110</v>
@@ -6253,13 +6241,13 @@
         <v>726630</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>1596</v>
@@ -6268,13 +6256,13 @@
         <v>1213849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6277,13 @@
         <v>236770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -6304,13 +6292,13 @@
         <v>20631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>210</v>
@@ -6319,13 +6307,13 @@
         <v>257402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6381,13 @@
         <v>410962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>974</v>
@@ -6408,13 +6396,13 @@
         <v>578828</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>1429</v>
@@ -6423,13 +6411,13 @@
         <v>989790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6432,13 @@
         <v>189195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6459,13 +6447,13 @@
         <v>18235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -6474,13 +6462,13 @@
         <v>207430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6536,13 @@
         <v>392924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>1446</v>
@@ -6563,13 +6551,13 @@
         <v>882191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>2029</v>
@@ -6578,13 +6566,13 @@
         <v>1275115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6587,13 @@
         <v>304831</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -6614,13 +6602,13 @@
         <v>144446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>707</v>
@@ -6629,13 +6617,13 @@
         <v>449277</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6691,13 @@
         <v>2182137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>4937</v>
@@ -6718,13 +6706,13 @@
         <v>3484964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>7164</v>
@@ -6733,13 +6721,13 @@
         <v>5667100</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6742,13 @@
         <v>1203091</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
         <v>430</v>
@@ -6769,13 +6757,13 @@
         <v>350617</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>1579</v>
@@ -6784,13 +6772,13 @@
         <v>1553708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0516EEAB-98FB-4704-AD08-84D9A0F86EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B07DB0D-B999-4A56-9C09-5B38E265BE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63600B78-6D47-492D-A21B-2FFBBB35A40C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75585271-592B-46E5-93E6-4ED24BFEEDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,1504 +71,1522 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE800598-7CD6-4FB6-98B8-7A894B5A0770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEFF4D-8672-4A9C-8747-9675AE2A5E33}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>21792</v>
+        <v>86388</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2113,10 +2131,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="I4" s="7">
-        <v>56958</v>
+        <v>249931</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2128,10 +2146,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="N4" s="7">
-        <v>78750</v>
+        <v>336319</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2149,10 +2167,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="D5" s="7">
-        <v>472272</v>
+        <v>407676</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2164,10 +2182,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>435</v>
+        <v>234</v>
       </c>
       <c r="I5" s="7">
-        <v>410531</v>
+        <v>216696</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2179,10 +2197,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>914</v>
+        <v>654</v>
       </c>
       <c r="N5" s="7">
-        <v>882803</v>
+        <v>624372</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2215,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I6" s="7">
-        <v>467489</v>
+        <v>466627</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2230,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N6" s="7">
-        <v>961553</v>
+        <v>960691</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2253,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c r="D7" s="7">
-        <v>60501</v>
+        <v>310966</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2268,10 +2286,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>265</v>
+        <v>505</v>
       </c>
       <c r="I7" s="7">
-        <v>284303</v>
+        <v>536640</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2283,10 +2301,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>321</v>
+        <v>792</v>
       </c>
       <c r="N7" s="7">
-        <v>344804</v>
+        <v>847605</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2304,10 +2322,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>647</v>
+        <v>416</v>
       </c>
       <c r="D8" s="7">
-        <v>674988</v>
+        <v>424523</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2319,10 +2337,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>341191</v>
+        <v>86179</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2334,10 +2352,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>973</v>
+        <v>500</v>
       </c>
       <c r="N8" s="7">
-        <v>1016178</v>
+        <v>510702</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2370,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I9" s="7">
-        <v>625494</v>
+        <v>622819</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2385,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="N9" s="7">
-        <v>1360982</v>
+        <v>1358307</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2408,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7">
-        <v>54373</v>
+        <v>262009</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2423,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>426</v>
+        <v>614</v>
       </c>
       <c r="I10" s="7">
-        <v>445182</v>
+        <v>642419</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2438,10 +2456,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>475</v>
+        <v>863</v>
       </c>
       <c r="N10" s="7">
-        <v>499555</v>
+        <v>904428</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2459,10 +2477,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>564</v>
+        <v>363</v>
       </c>
       <c r="D11" s="7">
-        <v>584295</v>
+        <v>375777</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2474,10 +2492,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>244562</v>
+        <v>47325</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2489,10 +2507,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>796</v>
+        <v>407</v>
       </c>
       <c r="N11" s="7">
-        <v>828857</v>
+        <v>423102</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2510,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D12" s="7">
-        <v>638668</v>
+        <v>637786</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2540,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="N12" s="7">
-        <v>1328412</v>
+        <v>1327530</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2563,10 +2581,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7">
-        <v>43539</v>
+        <v>172244</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2578,10 +2596,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="I13" s="7">
-        <v>370363</v>
+        <v>486010</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2593,10 +2611,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>399</v>
+        <v>627</v>
       </c>
       <c r="N13" s="7">
-        <v>413902</v>
+        <v>658253</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2614,10 +2632,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="D14" s="7">
-        <v>475608</v>
+        <v>346903</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2629,10 +2647,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>145279</v>
+        <v>29632</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2644,10 +2662,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>587</v>
+        <v>359</v>
       </c>
       <c r="N14" s="7">
-        <v>620887</v>
+        <v>376536</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2718,10 +2736,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>30672</v>
+        <v>98100</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2733,10 +2751,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="I16" s="7">
-        <v>291595</v>
+        <v>381069</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2748,10 +2766,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="N16" s="7">
-        <v>322267</v>
+        <v>479169</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2769,10 +2787,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="D17" s="7">
-        <v>356038</v>
+        <v>288610</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2784,10 +2802,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>112391</v>
+        <v>21902</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2799,10 +2817,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>471</v>
+        <v>317</v>
       </c>
       <c r="N17" s="7">
-        <v>468429</v>
+        <v>310513</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2835,10 +2853,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>403986</v>
+        <v>402971</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2850,10 +2868,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N18" s="7">
-        <v>790696</v>
+        <v>789682</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2873,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="D19" s="7">
-        <v>65761</v>
+        <v>190630</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2888,10 +2906,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="I19" s="7">
-        <v>380665</v>
+        <v>541216</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2903,10 +2921,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>446</v>
+        <v>731</v>
       </c>
       <c r="N19" s="7">
-        <v>446427</v>
+        <v>731847</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2924,49 +2942,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="D20" s="7">
-        <v>436705</v>
+        <v>311836</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>124</v>
+      </c>
+      <c r="I20" s="7">
+        <v>135626</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>282</v>
-      </c>
-      <c r="I20" s="7">
-        <v>296177</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>453</v>
+      </c>
+      <c r="N20" s="7">
+        <v>447461</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>738</v>
-      </c>
-      <c r="N20" s="7">
-        <v>732881</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,49 +3046,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>261</v>
+        <v>1059</v>
       </c>
       <c r="D22" s="7">
-        <v>276639</v>
+        <v>1120337</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2757</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2837286</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>1771</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1829067</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3816</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3957622</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2032</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2105705</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +3097,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2953</v>
+        <v>2154</v>
       </c>
       <c r="D23" s="7">
-        <v>2999904</v>
+        <v>2155325</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="7">
+        <v>536</v>
+      </c>
+      <c r="I23" s="7">
+        <v>537360</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>1526</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1550131</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>2690</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2692685</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="7">
-        <v>4479</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4550036</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,10 +3148,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3275662</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3145,10 +3163,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="I24" s="7">
-        <v>3379198</v>
+        <v>3374646</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3160,10 +3178,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6511</v>
+        <v>6506</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6650307</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3195,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B250D22-732D-4F2D-B150-86BAB44FB177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732FFC2E-0F17-4BBC-9F63-6E53C1A21626}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,49 +3335,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7">
-        <v>10138</v>
+        <v>110204</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="7">
+        <v>241</v>
+      </c>
+      <c r="I4" s="7">
+        <v>248296</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>345</v>
+      </c>
+      <c r="N4" s="7">
+        <v>358500</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="7">
-        <v>61</v>
-      </c>
-      <c r="I4" s="7">
-        <v>64614</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="7">
-        <v>71</v>
-      </c>
-      <c r="N4" s="7">
-        <v>74752</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,49 +3386,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="D5" s="7">
-        <v>444008</v>
+        <v>343942</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="7">
+        <v>180</v>
+      </c>
+      <c r="I5" s="7">
+        <v>181934</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="7">
-        <v>360</v>
-      </c>
-      <c r="I5" s="7">
-        <v>365616</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>522</v>
+      </c>
+      <c r="N5" s="7">
+        <v>525876</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="M5" s="7">
-        <v>796</v>
-      </c>
-      <c r="N5" s="7">
-        <v>809624</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,49 +3490,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>76928</v>
+        <v>343903</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>503</v>
+      </c>
+      <c r="I7" s="7">
+        <v>538023</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="7">
-        <v>272</v>
-      </c>
-      <c r="I7" s="7">
-        <v>291271</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>833</v>
+      </c>
+      <c r="N7" s="7">
+        <v>881926</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="7">
-        <v>346</v>
-      </c>
-      <c r="N7" s="7">
-        <v>368199</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,28 +3541,28 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>593</v>
+        <v>337</v>
       </c>
       <c r="D8" s="7">
-        <v>610159</v>
+        <v>343184</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>68</v>
+      </c>
+      <c r="I8" s="7">
+        <v>72232</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H8" s="7">
-        <v>299</v>
-      </c>
-      <c r="I8" s="7">
-        <v>318984</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>173</v>
@@ -3553,10 +3571,10 @@
         <v>174</v>
       </c>
       <c r="M8" s="7">
-        <v>892</v>
+        <v>405</v>
       </c>
       <c r="N8" s="7">
-        <v>929143</v>
+        <v>415416</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>175</v>
@@ -3627,49 +3645,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="D10" s="7">
-        <v>58123</v>
+        <v>389913</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
-        <v>448</v>
+        <v>630</v>
       </c>
       <c r="I10" s="7">
-        <v>476168</v>
+        <v>668701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
-        <v>505</v>
+        <v>1002</v>
       </c>
       <c r="N10" s="7">
-        <v>534291</v>
+        <v>1058614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,49 +3696,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>594</v>
+        <v>279</v>
       </c>
       <c r="D11" s="7">
-        <v>623740</v>
+        <v>291950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>234682</v>
+        <v>41147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
-        <v>813</v>
+        <v>315</v>
       </c>
       <c r="N11" s="7">
-        <v>858421</v>
+        <v>333096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,10 +3762,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>710850</v>
+        <v>709848</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3759,10 +3777,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N12" s="7">
-        <v>1392712</v>
+        <v>1391710</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3782,49 +3800,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c r="D13" s="7">
-        <v>69681</v>
+        <v>299437</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="I13" s="7">
-        <v>435614</v>
+        <v>575383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
-        <v>446</v>
+        <v>772</v>
       </c>
       <c r="N13" s="7">
-        <v>505296</v>
+        <v>874820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,49 +3851,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>486</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>544936</v>
+        <v>315180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>180585</v>
+        <v>40816</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
-        <v>641</v>
+        <v>315</v>
       </c>
       <c r="N14" s="7">
-        <v>725520</v>
+        <v>355996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,49 +3955,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7">
-        <v>34966</v>
+        <v>164122</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="I16" s="7">
-        <v>313149</v>
+        <v>403077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
-        <v>316</v>
+        <v>513</v>
       </c>
       <c r="N16" s="7">
-        <v>348115</v>
+        <v>567200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,49 +4006,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="D17" s="7">
-        <v>394463</v>
+        <v>264248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>134651</v>
+        <v>44723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
-        <v>483</v>
+        <v>285</v>
       </c>
       <c r="N17" s="7">
-        <v>529114</v>
+        <v>308970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,10 +4057,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>429429</v>
+        <v>428370</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4069,10 +4087,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N18" s="7">
-        <v>877229</v>
+        <v>876170</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4092,10 +4110,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="D19" s="7">
-        <v>71280</v>
+        <v>188262</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>230</v>
@@ -4107,10 +4125,10 @@
         <v>232</v>
       </c>
       <c r="H19" s="7">
-        <v>357</v>
+        <v>506</v>
       </c>
       <c r="I19" s="7">
-        <v>378062</v>
+        <v>537340</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>233</v>
@@ -4122,10 +4140,10 @@
         <v>235</v>
       </c>
       <c r="M19" s="7">
-        <v>419</v>
+        <v>679</v>
       </c>
       <c r="N19" s="7">
-        <v>449342</v>
+        <v>725602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>236</v>
@@ -4143,10 +4161,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="D20" s="7">
-        <v>488357</v>
+        <v>371375</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>239</v>
@@ -4158,10 +4176,10 @@
         <v>241</v>
       </c>
       <c r="H20" s="7">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="I20" s="7">
-        <v>364913</v>
+        <v>204636</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>242</v>
@@ -4173,10 +4191,10 @@
         <v>244</v>
       </c>
       <c r="M20" s="7">
-        <v>779</v>
+        <v>518</v>
       </c>
       <c r="N20" s="7">
-        <v>853270</v>
+        <v>576011</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>245</v>
@@ -4209,10 +4227,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>741976</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4224,10 +4242,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>1301613</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4247,10 +4265,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>296</v>
+        <v>1393</v>
       </c>
       <c r="D22" s="7">
-        <v>321117</v>
+        <v>1495841</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>248</v>
@@ -4262,10 +4280,10 @@
         <v>250</v>
       </c>
       <c r="H22" s="7">
-        <v>1807</v>
+        <v>2751</v>
       </c>
       <c r="I22" s="7">
-        <v>1958879</v>
+        <v>2970821</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>251</v>
@@ -4277,10 +4295,10 @@
         <v>253</v>
       </c>
       <c r="M22" s="7">
-        <v>2103</v>
+        <v>4144</v>
       </c>
       <c r="N22" s="7">
-        <v>2279995</v>
+        <v>4466662</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>254</v>
@@ -4289,7 +4307,7 @@
         <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,49 +4316,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2913</v>
+        <v>1815</v>
       </c>
       <c r="D23" s="7">
-        <v>3105662</v>
+        <v>1929878</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>545</v>
+      </c>
+      <c r="I23" s="7">
+        <v>585487</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="7">
-        <v>1491</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1599430</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>2360</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2515365</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M23" s="7">
-        <v>4404</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4705093</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,10 +4367,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="D24" s="7">
-        <v>3426779</v>
+        <v>3425719</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4364,10 +4382,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="I24" s="7">
-        <v>3558309</v>
+        <v>3556308</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4379,10 +4397,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6507</v>
+        <v>6504</v>
       </c>
       <c r="N24" s="7">
-        <v>6985088</v>
+        <v>6982027</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4396,7 +4414,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3FCE6A-264A-4E0A-9806-5C7029B9286B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C5B132-69F1-48F9-A353-F0E2BFC24BE8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="D4" s="7">
-        <v>32151</v>
+        <v>120987</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>257</v>
+      </c>
+      <c r="I4" s="7">
+        <v>251776</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H4" s="7">
-        <v>82</v>
-      </c>
-      <c r="I4" s="7">
-        <v>80979</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>368</v>
+      </c>
+      <c r="N4" s="7">
+        <v>372764</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="M4" s="7">
-        <v>109</v>
-      </c>
-      <c r="N4" s="7">
-        <v>113130</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="D5" s="7">
-        <v>387312</v>
+        <v>296641</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>147</v>
+      </c>
+      <c r="I5" s="7">
+        <v>143979</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="7">
-        <v>322</v>
-      </c>
-      <c r="I5" s="7">
-        <v>314776</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>427</v>
+      </c>
+      <c r="N5" s="7">
+        <v>440619</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="M5" s="7">
-        <v>688</v>
-      </c>
-      <c r="N5" s="7">
-        <v>702088</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D6" s="7">
-        <v>419463</v>
+        <v>417628</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4668,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="N6" s="7">
-        <v>815218</v>
+        <v>813383</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4691,10 +4709,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="D7" s="7">
-        <v>76612</v>
+        <v>350866</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>283</v>
@@ -4706,10 +4724,10 @@
         <v>285</v>
       </c>
       <c r="H7" s="7">
-        <v>272</v>
+        <v>511</v>
       </c>
       <c r="I7" s="7">
-        <v>266560</v>
+        <v>498155</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>286</v>
@@ -4721,10 +4739,10 @@
         <v>288</v>
       </c>
       <c r="M7" s="7">
-        <v>345</v>
+        <v>846</v>
       </c>
       <c r="N7" s="7">
-        <v>343172</v>
+        <v>849022</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>289</v>
@@ -4742,10 +4760,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>494</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7">
-        <v>513884</v>
+        <v>239630</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>292</v>
@@ -4757,10 +4775,10 @@
         <v>294</v>
       </c>
       <c r="H8" s="7">
-        <v>307</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>296984</v>
+        <v>64454</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>295</v>
@@ -4772,10 +4790,10 @@
         <v>297</v>
       </c>
       <c r="M8" s="7">
-        <v>801</v>
+        <v>299</v>
       </c>
       <c r="N8" s="7">
-        <v>810868</v>
+        <v>304084</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>298</v>
@@ -4808,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I9" s="7">
-        <v>563544</v>
+        <v>562609</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4823,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1154040</v>
+        <v>1153106</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4846,10 +4864,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>105178</v>
+        <v>446550</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>301</v>
@@ -4861,10 +4879,10 @@
         <v>303</v>
       </c>
       <c r="H10" s="7">
-        <v>366</v>
+        <v>639</v>
       </c>
       <c r="I10" s="7">
-        <v>362797</v>
+        <v>634162</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>304</v>
@@ -4876,10 +4894,10 @@
         <v>306</v>
       </c>
       <c r="M10" s="7">
-        <v>464</v>
+        <v>1059</v>
       </c>
       <c r="N10" s="7">
-        <v>467975</v>
+        <v>1080711</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>307</v>
@@ -4897,10 +4915,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>540</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>563919</v>
+        <v>219845</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>310</v>
@@ -4912,10 +4930,10 @@
         <v>312</v>
       </c>
       <c r="H11" s="7">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>298589</v>
+        <v>26295</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>313</v>
@@ -4927,10 +4945,10 @@
         <v>315</v>
       </c>
       <c r="M11" s="7">
-        <v>839</v>
+        <v>241</v>
       </c>
       <c r="N11" s="7">
-        <v>862508</v>
+        <v>246141</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>316</v>
@@ -4948,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D12" s="7">
-        <v>669097</v>
+        <v>666395</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4963,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I12" s="7">
-        <v>661386</v>
+        <v>660457</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4978,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="N12" s="7">
-        <v>1330483</v>
+        <v>1326852</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5001,10 +5019,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="D13" s="7">
-        <v>108460</v>
+        <v>382562</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>319</v>
@@ -5016,10 +5034,10 @@
         <v>321</v>
       </c>
       <c r="H13" s="7">
-        <v>396</v>
+        <v>572</v>
       </c>
       <c r="I13" s="7">
-        <v>425662</v>
+        <v>617596</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>322</v>
@@ -5031,10 +5049,10 @@
         <v>324</v>
       </c>
       <c r="M13" s="7">
-        <v>492</v>
+        <v>916</v>
       </c>
       <c r="N13" s="7">
-        <v>534121</v>
+        <v>1000158</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>325</v>
@@ -5052,10 +5070,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>486</v>
+        <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>537588</v>
+        <v>260769</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>328</v>
@@ -5067,10 +5085,10 @@
         <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>223415</v>
+        <v>30440</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>331</v>
@@ -5082,10 +5100,10 @@
         <v>333</v>
       </c>
       <c r="M14" s="7">
-        <v>692</v>
+        <v>265</v>
       </c>
       <c r="N14" s="7">
-        <v>761004</v>
+        <v>291209</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>334</v>
@@ -5103,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D15" s="7">
-        <v>646048</v>
+        <v>643331</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5118,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I15" s="7">
-        <v>649077</v>
+        <v>648036</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5133,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1291367</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5156,10 +5174,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="D16" s="7">
-        <v>70033</v>
+        <v>244163</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>337</v>
@@ -5171,10 +5189,10 @@
         <v>339</v>
       </c>
       <c r="H16" s="7">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="I16" s="7">
-        <v>359540</v>
+        <v>473098</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>340</v>
@@ -5186,10 +5204,10 @@
         <v>342</v>
       </c>
       <c r="M16" s="7">
-        <v>377</v>
+        <v>630</v>
       </c>
       <c r="N16" s="7">
-        <v>429573</v>
+        <v>717261</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>343</v>
@@ -5207,10 +5225,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>407885</v>
+        <v>233755</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>346</v>
@@ -5222,10 +5240,10 @@
         <v>348</v>
       </c>
       <c r="H17" s="7">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>137309</v>
+        <v>22648</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>349</v>
@@ -5237,10 +5255,10 @@
         <v>351</v>
       </c>
       <c r="M17" s="7">
-        <v>480</v>
+        <v>226</v>
       </c>
       <c r="N17" s="7">
-        <v>545194</v>
+        <v>256403</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>352</v>
@@ -5273,10 +5291,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I18" s="7">
-        <v>496849</v>
+        <v>495746</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5288,10 +5306,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N18" s="7">
-        <v>974767</v>
+        <v>973664</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5311,10 +5329,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="D19" s="7">
-        <v>94909</v>
+        <v>253347</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>355</v>
@@ -5326,10 +5344,10 @@
         <v>357</v>
       </c>
       <c r="H19" s="7">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="I19" s="7">
-        <v>464535</v>
+        <v>618580</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>358</v>
@@ -5341,10 +5359,10 @@
         <v>360</v>
       </c>
       <c r="M19" s="7">
-        <v>501</v>
+        <v>797</v>
       </c>
       <c r="N19" s="7">
-        <v>559444</v>
+        <v>871926</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>361</v>
@@ -5362,10 +5380,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>529</v>
+        <v>359</v>
       </c>
       <c r="D20" s="7">
-        <v>496419</v>
+        <v>336195</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>364</v>
@@ -5377,10 +5395,10 @@
         <v>366</v>
       </c>
       <c r="H20" s="7">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7">
-        <v>313396</v>
+        <v>158397</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>367</v>
@@ -5392,10 +5410,10 @@
         <v>369</v>
       </c>
       <c r="M20" s="7">
-        <v>781</v>
+        <v>482</v>
       </c>
       <c r="N20" s="7">
-        <v>809815</v>
+        <v>494592</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>370</v>
@@ -5413,10 +5431,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>589542</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5428,10 +5446,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>776977</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5443,10 +5461,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>1366518</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5466,10 +5484,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>455</v>
+        <v>1694</v>
       </c>
       <c r="D22" s="7">
-        <v>487343</v>
+        <v>1798474</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>373</v>
@@ -5481,10 +5499,10 @@
         <v>375</v>
       </c>
       <c r="H22" s="7">
-        <v>1833</v>
+        <v>2922</v>
       </c>
       <c r="I22" s="7">
-        <v>1960072</v>
+        <v>3093366</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>376</v>
@@ -5493,22 +5511,22 @@
         <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
-        <v>2288</v>
+        <v>4616</v>
       </c>
       <c r="N22" s="7">
-        <v>2447415</v>
+        <v>4891842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,49 +5535,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2776</v>
+        <v>1529</v>
       </c>
       <c r="D23" s="7">
-        <v>2907007</v>
+        <v>1586835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
-        <v>1505</v>
+        <v>411</v>
       </c>
       <c r="I23" s="7">
-        <v>1584470</v>
+        <v>446214</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
-        <v>4281</v>
+        <v>1940</v>
       </c>
       <c r="N23" s="7">
-        <v>4491477</v>
+        <v>2033048</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,10 +5586,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="D24" s="7">
-        <v>3394350</v>
+        <v>3385309</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5583,10 +5601,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3338</v>
+        <v>3333</v>
       </c>
       <c r="I24" s="7">
-        <v>3544542</v>
+        <v>3539580</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5598,10 +5616,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6569</v>
+        <v>6556</v>
       </c>
       <c r="N24" s="7">
-        <v>6938892</v>
+        <v>6924890</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5615,7 +5633,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95287C5D-0ADA-44EA-A25D-E82CD8BF9487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0EE9E9-ADA7-4072-8926-382F8658C7A7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5779,13 @@
         <v>179538</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>150</v>
@@ -5776,13 +5794,13 @@
         <v>239740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>238</v>
@@ -5791,13 +5809,13 @@
         <v>419279</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5830,13 @@
         <v>198141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -5827,13 +5845,13 @@
         <v>115217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5842,13 +5860,13 @@
         <v>313357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5934,13 @@
         <v>283376</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>434</v>
@@ -5931,13 +5949,13 @@
         <v>463934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M7" s="7">
         <v>636</v>
@@ -5946,13 +5964,13 @@
         <v>747310</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5985,13 @@
         <v>145020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5982,13 +6000,13 @@
         <v>35281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
@@ -5997,13 +6015,13 @@
         <v>180301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6089,13 @@
         <v>428118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>823</v>
@@ -6086,13 +6104,13 @@
         <v>593640</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>1236</v>
@@ -6101,13 +6119,13 @@
         <v>1021757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6140,13 @@
         <v>129134</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6137,13 +6155,13 @@
         <v>16807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -6152,13 +6170,13 @@
         <v>145942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6244,13 @@
         <v>487220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>1110</v>
@@ -6241,28 +6259,28 @@
         <v>726630</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>1596</v>
       </c>
       <c r="N13" s="7">
-        <v>1213849</v>
+        <v>1213850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,43 +6295,43 @@
         <v>236770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>20631</v>
+        <v>19880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N14" s="7">
-        <v>257402</v>
+        <v>256650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,10 +6355,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>746510</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6352,10 +6370,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1470500</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6381,13 +6399,13 @@
         <v>410962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>974</v>
@@ -6396,13 +6414,13 @@
         <v>578828</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>1429</v>
@@ -6411,13 +6429,13 @@
         <v>989790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6450,13 @@
         <v>189195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6447,13 +6465,13 @@
         <v>18235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -6462,13 +6480,13 @@
         <v>207430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,28 +6554,28 @@
         <v>392924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>1446</v>
       </c>
       <c r="I19" s="7">
-        <v>882191</v>
+        <v>882192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>2029</v>
@@ -6566,13 +6584,13 @@
         <v>1275115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,49 +6599,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D20" s="7">
-        <v>304831</v>
+        <v>303666</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="7">
-        <v>144446</v>
+        <v>143834</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="N20" s="7">
-        <v>449277</v>
+        <v>447501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +6650,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>696590</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6647,10 +6665,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>1026026</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6662,10 +6680,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>1722616</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6691,13 +6709,13 @@
         <v>2182137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>4937</v>
@@ -6706,28 +6724,28 @@
         <v>3484964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>7164</v>
       </c>
       <c r="N22" s="7">
-        <v>5667100</v>
+        <v>5667101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,49 +6754,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D23" s="7">
-        <v>1203091</v>
+        <v>1201927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I23" s="7">
-        <v>350617</v>
+        <v>349254</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="N23" s="7">
-        <v>1553708</v>
+        <v>1551181</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,10 +6805,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3385228</v>
+        <v>3384064</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6802,10 +6820,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="I24" s="7">
-        <v>3835581</v>
+        <v>3834218</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6817,10 +6835,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>8743</v>
+        <v>8739</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7218282</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6834,7 +6852,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B07DB0D-B999-4A56-9C09-5B38E265BE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B1792C-A7C0-4FB1-8DEF-EAD9E2E59DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75585271-592B-46E5-93E6-4ED24BFEEDEA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{14C40CD2-D9FA-4064-971D-7FF801DE450F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="585">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,10 +68,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>17,49%</t>
@@ -101,7 +101,7 @@
     <t>38,53%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>82,51%</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>42,28%</t>
@@ -191,7 +191,7 @@
     <t>40,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>41,08%</t>
@@ -248,7 +248,7 @@
     <t>34,43%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>33,18%</t>
@@ -305,7 +305,7 @@
     <t>39,58%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>25,37%</t>
@@ -362,55 +362,118 @@
     <t>42,85%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>34,2%</t>
@@ -731,58 +794,112 @@
     <t>31,9%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>43,67%</t>
@@ -1106,58 +1223,112 @@
     <t>29,53%</t>
   </si>
   <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>53,13%</t>
@@ -1217,376 +1388,412 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>55,57%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
 </sst>
 </file>
@@ -1998,8 +2205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEFF4D-8672-4A9C-8747-9675AE2A5E33}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4879FA1-34FC-46B9-8C29-B9A6D73AE78B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2820,7 +3027,7 @@
         <v>317</v>
       </c>
       <c r="N17" s="7">
-        <v>310513</v>
+        <v>310512</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2871,7 +3078,7 @@
         <v>787</v>
       </c>
       <c r="N18" s="7">
-        <v>789682</v>
+        <v>789681</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2891,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7">
-        <v>190630</v>
+        <v>116236</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2906,10 +3113,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>537</v>
+        <v>333</v>
       </c>
       <c r="I19" s="7">
-        <v>541216</v>
+        <v>307160</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2921,10 +3128,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>731</v>
+        <v>450</v>
       </c>
       <c r="N19" s="7">
-        <v>731847</v>
+        <v>423396</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2942,49 +3149,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="D20" s="7">
-        <v>311836</v>
+        <v>176347</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
+        <v>38</v>
+      </c>
+      <c r="I20" s="7">
+        <v>35774</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="7">
+        <v>224</v>
+      </c>
+      <c r="N20" s="7">
+        <v>212121</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="7">
-        <v>135626</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>453</v>
-      </c>
-      <c r="N20" s="7">
-        <v>447461</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3008,10 +3215,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3023,10 +3230,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3040,55 +3247,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1059</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>1120337</v>
+        <v>74394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2757</v>
+        <v>204</v>
       </c>
       <c r="I22" s="7">
-        <v>2837286</v>
+        <v>234057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3816</v>
+        <v>281</v>
       </c>
       <c r="N22" s="7">
-        <v>3957622</v>
+        <v>308451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,49 +3304,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2154</v>
+        <v>143</v>
       </c>
       <c r="D23" s="7">
-        <v>2155325</v>
+        <v>135489</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>536</v>
+        <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>537360</v>
+        <v>99851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>2690</v>
+        <v>229</v>
       </c>
       <c r="N23" s="7">
-        <v>2692685</v>
+        <v>235340</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,63 +3355,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1059</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1120336</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2757</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2837285</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3816</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3957622</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2154</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2155325</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>536</v>
+      </c>
+      <c r="I26" s="7">
+        <v>537360</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2690</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2692685</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3275661</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3293</v>
       </c>
-      <c r="I24" s="7">
-        <v>3374646</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3374645</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6650307</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3217,8 +3580,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732FFC2E-0F17-4BBC-9F63-6E53C1A21626}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6422A-B4B0-455F-B1C3-94FA7F416139}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3234,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3704,13 @@
         <v>110204</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>241</v>
@@ -3356,13 +3719,13 @@
         <v>248296</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>345</v>
@@ -3371,13 +3734,13 @@
         <v>358500</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3755,13 @@
         <v>343942</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>180</v>
@@ -3407,13 +3770,13 @@
         <v>181934</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
@@ -3422,13 +3785,13 @@
         <v>525876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3859,13 @@
         <v>343903</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>503</v>
@@ -3511,13 +3874,13 @@
         <v>538023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>833</v>
@@ -3526,13 +3889,13 @@
         <v>881926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3910,13 @@
         <v>343184</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -3562,13 +3925,13 @@
         <v>72232</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>405</v>
@@ -3577,13 +3940,13 @@
         <v>415416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +4014,13 @@
         <v>389913</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>630</v>
@@ -3666,28 +4029,28 @@
         <v>668701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>1002</v>
       </c>
       <c r="N10" s="7">
-        <v>1058614</v>
+        <v>1058615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +4065,13 @@
         <v>291950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -3717,13 +4080,13 @@
         <v>41147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>315</v>
@@ -3732,13 +4095,13 @@
         <v>333096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +4143,7 @@
         <v>1317</v>
       </c>
       <c r="N12" s="7">
-        <v>1391710</v>
+        <v>1391711</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3806,13 +4169,13 @@
         <v>299437</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>505</v>
@@ -3821,13 +4184,13 @@
         <v>575383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>772</v>
@@ -3836,13 +4199,13 @@
         <v>874820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +4220,13 @@
         <v>315180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -3872,13 +4235,13 @@
         <v>40816</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -3887,13 +4250,13 @@
         <v>355996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +4324,13 @@
         <v>164122</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>366</v>
@@ -3976,13 +4339,13 @@
         <v>403077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -3991,13 +4354,13 @@
         <v>567200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4375,13 @@
         <v>264248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4027,13 +4390,13 @@
         <v>44723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>285</v>
@@ -4042,10 +4405,10 @@
         <v>308970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4110,49 +4473,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="D19" s="7">
-        <v>188262</v>
+        <v>111894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>506</v>
+        <v>300</v>
       </c>
       <c r="I19" s="7">
-        <v>537340</v>
+        <v>308545</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>679</v>
+        <v>403</v>
       </c>
       <c r="N19" s="7">
-        <v>725602</v>
+        <v>420438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4524,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="D20" s="7">
-        <v>371375</v>
+        <v>197892</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="I20" s="7">
-        <v>204636</v>
+        <v>44452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>518</v>
+        <v>222</v>
       </c>
       <c r="N20" s="7">
-        <v>576011</v>
+        <v>242345</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,10 +4575,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4227,10 +4590,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>741976</v>
+        <v>352997</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4242,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1301613</v>
+        <v>662783</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4259,55 +4622,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1393</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>1495841</v>
+        <v>76369</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>2751</v>
+        <v>206</v>
       </c>
       <c r="I22" s="7">
-        <v>2970821</v>
+        <v>228795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>4144</v>
+        <v>276</v>
       </c>
       <c r="N22" s="7">
-        <v>4466662</v>
+        <v>305164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,49 +4679,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1815</v>
+        <v>152</v>
       </c>
       <c r="D23" s="7">
-        <v>1929878</v>
+        <v>173482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>545</v>
+        <v>144</v>
       </c>
       <c r="I23" s="7">
-        <v>585487</v>
+        <v>160184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>2360</v>
+        <v>296</v>
       </c>
       <c r="N23" s="7">
-        <v>2515365</v>
+        <v>333666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,63 +4730,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1393</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1495841</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2751</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2970821</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4144</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4466662</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1815</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1929878</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="7">
+        <v>545</v>
+      </c>
+      <c r="I26" s="7">
+        <v>585487</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2360</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2515365</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425719</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3556308</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6982027</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4436,8 +4955,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C5B132-69F1-48F9-A353-F0E2BFC24BE8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5EB18-E94C-4672-BE56-CFBEB63506C9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4453,7 +4972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +5079,13 @@
         <v>120987</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>257</v>
@@ -4575,13 +5094,13 @@
         <v>251776</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>368</v>
@@ -4590,13 +5109,13 @@
         <v>372764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +5130,13 @@
         <v>296641</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>147</v>
@@ -4626,13 +5145,13 @@
         <v>143979</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>427</v>
@@ -4641,13 +5160,13 @@
         <v>440619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +5234,13 @@
         <v>350866</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>511</v>
@@ -4730,13 +5249,13 @@
         <v>498155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>846</v>
@@ -4745,13 +5264,13 @@
         <v>849022</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +5285,13 @@
         <v>239630</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -4781,13 +5300,13 @@
         <v>64454</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>299</v>
@@ -4796,13 +5315,13 @@
         <v>304084</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +5389,13 @@
         <v>446550</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>639</v>
@@ -4885,13 +5404,13 @@
         <v>634162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>1059</v>
@@ -4900,13 +5419,13 @@
         <v>1080711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +5440,13 @@
         <v>219845</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4936,13 +5455,13 @@
         <v>26295</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4951,13 +5470,13 @@
         <v>246141</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5544,13 @@
         <v>382562</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>572</v>
@@ -5040,13 +5559,13 @@
         <v>617596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>916</v>
@@ -5055,13 +5574,13 @@
         <v>1000158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5595,13 @@
         <v>260769</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5091,13 +5610,13 @@
         <v>30440</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>265</v>
@@ -5106,13 +5625,13 @@
         <v>291209</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5699,13 @@
         <v>244163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>412</v>
@@ -5195,13 +5714,13 @@
         <v>473098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>630</v>
@@ -5210,13 +5729,13 @@
         <v>717261</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5750,13 @@
         <v>233755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5246,13 +5765,13 @@
         <v>22648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>226</v>
@@ -5261,13 +5780,13 @@
         <v>256403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,49 +5848,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="D19" s="7">
-        <v>253347</v>
+        <v>155270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
-        <v>531</v>
+        <v>327</v>
       </c>
       <c r="I19" s="7">
-        <v>618580</v>
+        <v>349523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
-        <v>797</v>
+        <v>479</v>
       </c>
       <c r="N19" s="7">
-        <v>871926</v>
+        <v>504792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,49 +5899,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>359</v>
+        <v>172</v>
       </c>
       <c r="D20" s="7">
-        <v>336195</v>
+        <v>178010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>158397</v>
+        <v>27285</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
-        <v>482</v>
+        <v>198</v>
       </c>
       <c r="N20" s="7">
-        <v>494592</v>
+        <v>205295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589542</v>
+        <v>333280</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5446,10 +5965,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>654</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>776977</v>
+        <v>376808</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5461,10 +5980,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1366518</v>
+        <v>710087</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5478,55 +5997,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1694</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7">
-        <v>1798474</v>
+        <v>98077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
-        <v>2922</v>
+        <v>204</v>
       </c>
       <c r="I22" s="7">
-        <v>3093366</v>
+        <v>269057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
-        <v>4616</v>
+        <v>318</v>
       </c>
       <c r="N22" s="7">
-        <v>4891842</v>
+        <v>367134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,49 +6054,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1529</v>
+        <v>187</v>
       </c>
       <c r="D23" s="7">
-        <v>1586835</v>
+        <v>158185</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
-        <v>411</v>
+        <v>97</v>
       </c>
       <c r="I23" s="7">
-        <v>446214</v>
+        <v>131112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
-        <v>1940</v>
+        <v>284</v>
       </c>
       <c r="N23" s="7">
-        <v>2033048</v>
+        <v>289297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,63 +6105,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256262</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>656431</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1694</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1798474</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2922</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3093366</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4616</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4891842</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1529</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1586835</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H26" s="7">
+        <v>411</v>
+      </c>
+      <c r="I26" s="7">
+        <v>446214</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2033048</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3223</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3385309</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3333</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3539580</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6556</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6924890</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5655,8 +6330,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0EE9E9-ADA7-4072-8926-382F8658C7A7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EA7102-3FF3-420D-811B-870C4D7E7AAE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5672,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5776,46 +6451,46 @@
         <v>88</v>
       </c>
       <c r="D4" s="7">
-        <v>179538</v>
+        <v>196451</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>150</v>
       </c>
       <c r="I4" s="7">
-        <v>239740</v>
+        <v>211927</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>238</v>
       </c>
       <c r="N4" s="7">
-        <v>419279</v>
+        <v>408377</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,46 +6502,46 @@
         <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>198141</v>
+        <v>203536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
       </c>
       <c r="I5" s="7">
-        <v>115217</v>
+        <v>101273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
       </c>
       <c r="N5" s="7">
-        <v>313357</v>
+        <v>304810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +6553,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5893,7 +6568,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5908,7 +6583,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5931,46 +6606,46 @@
         <v>202</v>
       </c>
       <c r="D7" s="7">
-        <v>283376</v>
+        <v>285935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="H7" s="7">
         <v>434</v>
       </c>
       <c r="I7" s="7">
-        <v>463934</v>
+        <v>479432</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>467</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="M7" s="7">
         <v>636</v>
       </c>
       <c r="N7" s="7">
-        <v>747310</v>
+        <v>765367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,46 +6657,46 @@
         <v>100</v>
       </c>
       <c r="D8" s="7">
-        <v>145020</v>
+        <v>137612</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>35281</v>
+        <v>32661</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
       </c>
       <c r="N8" s="7">
-        <v>180301</v>
+        <v>170273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6708,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6048,7 +6723,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6063,7 +6738,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6086,46 +6761,46 @@
         <v>413</v>
       </c>
       <c r="D10" s="7">
-        <v>428118</v>
+        <v>413336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7">
         <v>823</v>
       </c>
       <c r="I10" s="7">
-        <v>593640</v>
+        <v>576164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>1236</v>
       </c>
       <c r="N10" s="7">
-        <v>1021757</v>
+        <v>989500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,46 +6812,46 @@
         <v>133</v>
       </c>
       <c r="D11" s="7">
-        <v>129134</v>
+        <v>123002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>16807</v>
+        <v>15838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
       </c>
       <c r="N11" s="7">
-        <v>145942</v>
+        <v>138840</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,7 +6863,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6203,7 +6878,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6218,7 +6893,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6241,46 +6916,46 @@
         <v>486</v>
       </c>
       <c r="D13" s="7">
-        <v>487220</v>
+        <v>468927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>1110</v>
       </c>
       <c r="I13" s="7">
-        <v>726630</v>
+        <v>693913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>1596</v>
       </c>
       <c r="N13" s="7">
-        <v>1213850</v>
+        <v>1162839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,46 +6967,46 @@
         <v>179</v>
       </c>
       <c r="D14" s="7">
-        <v>236770</v>
+        <v>418859</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>19880</v>
+        <v>18274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>209</v>
       </c>
       <c r="N14" s="7">
-        <v>256650</v>
+        <v>437134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,7 +7018,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6358,7 +7033,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746510</v>
+        <v>712187</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6373,7 +7048,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470500</v>
+        <v>1599973</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6396,46 +7071,46 @@
         <v>455</v>
       </c>
       <c r="D16" s="7">
-        <v>410962</v>
+        <v>386377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>974</v>
       </c>
       <c r="I16" s="7">
-        <v>578828</v>
+        <v>531277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>1429</v>
       </c>
       <c r="N16" s="7">
-        <v>989790</v>
+        <v>917654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,46 +7122,46 @@
         <v>208</v>
       </c>
       <c r="D17" s="7">
-        <v>189195</v>
+        <v>174857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>18235</v>
+        <v>16628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
       </c>
       <c r="N17" s="7">
-        <v>207430</v>
+        <v>191485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +7173,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6513,7 +7188,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6528,7 +7203,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6548,49 +7223,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>583</v>
+        <v>357</v>
       </c>
       <c r="D19" s="7">
-        <v>392924</v>
+        <v>230492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="H19" s="7">
-        <v>1446</v>
+        <v>780</v>
       </c>
       <c r="I19" s="7">
-        <v>882192</v>
+        <v>586226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
-        <v>2029</v>
+        <v>1137</v>
       </c>
       <c r="N19" s="7">
-        <v>1275115</v>
+        <v>816720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,49 +7274,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>443</v>
+        <v>211</v>
       </c>
       <c r="D20" s="7">
-        <v>303666</v>
+        <v>136574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c r="I20" s="7">
-        <v>143834</v>
+        <v>21576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
-        <v>704</v>
+        <v>257</v>
       </c>
       <c r="N20" s="7">
-        <v>447501</v>
+        <v>158149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,10 +7325,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>696590</v>
+        <v>367066</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6665,10 +7340,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026026</v>
+        <v>607802</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6680,10 +7355,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1722616</v>
+        <v>974869</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6697,55 +7372,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="7">
-        <v>2182137</v>
+        <v>139089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7">
-        <v>4937</v>
+        <v>666</v>
       </c>
       <c r="I22" s="7">
-        <v>3484964</v>
+        <v>318639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="M22" s="7">
-        <v>7164</v>
+        <v>892</v>
       </c>
       <c r="N22" s="7">
-        <v>5667101</v>
+        <v>457728</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,49 +7429,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1147</v>
+        <v>232</v>
       </c>
       <c r="D23" s="7">
-        <v>1201927</v>
+        <v>143670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="H23" s="7">
-        <v>428</v>
+        <v>215</v>
       </c>
       <c r="I23" s="7">
-        <v>349254</v>
+        <v>107192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="M23" s="7">
-        <v>1575</v>
+        <v>447</v>
       </c>
       <c r="N23" s="7">
-        <v>1551181</v>
+        <v>250862</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,63 +7480,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2227</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2120608</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4937</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3397577</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7164</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5518185</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1147</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1338110</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H26" s="7">
+        <v>428</v>
+      </c>
+      <c r="I26" s="7">
+        <v>313443</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1575</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1651553</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384064</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458718</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5365</v>
       </c>
-      <c r="I24" s="7">
-        <v>3834218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3711020</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8739</v>
       </c>
-      <c r="N24" s="7">
-        <v>7218282</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7169738</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
